--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl13-Cxcr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl13-Cxcr5.xlsx
@@ -543,10 +543,10 @@
         <v>0.72367</v>
       </c>
       <c r="I2">
-        <v>0.1061939916097839</v>
+        <v>0.2038054651530871</v>
       </c>
       <c r="J2">
-        <v>0.1061939916097839</v>
+        <v>0.2038054651530872</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.029036333333333</v>
+        <v>0.52293</v>
       </c>
       <c r="N2">
-        <v>3.087109</v>
+        <v>1.56879</v>
       </c>
       <c r="O2">
-        <v>0.4250659434788278</v>
+        <v>0.3445930095145882</v>
       </c>
       <c r="P2">
-        <v>0.4250659434788278</v>
+        <v>0.3445930095145882</v>
       </c>
       <c r="Q2">
-        <v>0.2482275744477778</v>
+        <v>0.1261429177</v>
       </c>
       <c r="R2">
-        <v>2.23404817003</v>
+        <v>1.1352862593</v>
       </c>
       <c r="S2">
-        <v>0.04513944923539553</v>
+        <v>0.07022993859262282</v>
       </c>
       <c r="T2">
-        <v>0.04513944923539553</v>
+        <v>0.07022993859262283</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.72367</v>
       </c>
       <c r="I3">
-        <v>0.1061939916097839</v>
+        <v>0.2038054651530871</v>
       </c>
       <c r="J3">
-        <v>0.1061939916097839</v>
+        <v>0.2038054651530872</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>1.964194</v>
       </c>
       <c r="O3">
-        <v>0.2704510841001898</v>
+        <v>0.4314455865542851</v>
       </c>
       <c r="P3">
-        <v>0.2704510841001898</v>
+        <v>0.4314455865542852</v>
       </c>
       <c r="Q3">
         <v>0.1579364746644445</v>
@@ -635,10 +635,10 @@
         <v>1.42142827198</v>
       </c>
       <c r="S3">
-        <v>0.02872028015579252</v>
+        <v>0.0879309684559426</v>
       </c>
       <c r="T3">
-        <v>0.02872028015579252</v>
+        <v>0.08793096845594262</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,40 +667,40 @@
         <v>0.72367</v>
       </c>
       <c r="I4">
-        <v>0.1061939916097839</v>
+        <v>0.2038054651530871</v>
       </c>
       <c r="J4">
-        <v>0.1061939916097839</v>
+        <v>0.2038054651530872</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.571001</v>
+        <v>0.2505543333333333</v>
       </c>
       <c r="N4">
-        <v>1.713003</v>
+        <v>0.751663</v>
       </c>
       <c r="O4">
-        <v>0.235864440282822</v>
+        <v>0.1651067480738428</v>
       </c>
       <c r="P4">
-        <v>0.2358644402828221</v>
+        <v>0.1651067480738428</v>
       </c>
       <c r="Q4">
-        <v>0.1377387645566667</v>
+        <v>0.06043955146777778</v>
       </c>
       <c r="R4">
-        <v>1.23964888101</v>
+        <v>0.5439559632100001</v>
       </c>
       <c r="S4">
-        <v>0.02504738639244039</v>
+        <v>0.03364965759110311</v>
       </c>
       <c r="T4">
-        <v>0.02504738639244039</v>
+        <v>0.03364965759110312</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>0.72367</v>
       </c>
       <c r="I5">
-        <v>0.1061939916097839</v>
+        <v>0.2038054651530871</v>
       </c>
       <c r="J5">
-        <v>0.1061939916097839</v>
+        <v>0.2038054651530872</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1661176666666667</v>
+        <v>0.08931366666666667</v>
       </c>
       <c r="N5">
-        <v>0.498353</v>
+        <v>0.267941</v>
       </c>
       <c r="O5">
-        <v>0.06861853213816042</v>
+        <v>0.05885465585728381</v>
       </c>
       <c r="P5">
-        <v>0.06861853213816042</v>
+        <v>0.05885465585728381</v>
       </c>
       <c r="Q5">
-        <v>0.0400714572788889</v>
+        <v>0.02154454038555556</v>
       </c>
       <c r="R5">
-        <v>0.3606431155100001</v>
+        <v>0.19390086347</v>
       </c>
       <c r="S5">
-        <v>0.007286875826155497</v>
+        <v>0.01199490051341859</v>
       </c>
       <c r="T5">
-        <v>0.007286875826155497</v>
+        <v>0.01199490051341859</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.4532080000000001</v>
+        <v>0.133983</v>
       </c>
       <c r="H6">
-        <v>1.359624</v>
+        <v>0.401949</v>
       </c>
       <c r="I6">
-        <v>0.1995162154690133</v>
+        <v>0.1131999432238703</v>
       </c>
       <c r="J6">
-        <v>0.1995162154690133</v>
+        <v>0.1131999432238703</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.029036333333333</v>
+        <v>0.52293</v>
       </c>
       <c r="N6">
-        <v>3.087109</v>
+        <v>1.56879</v>
       </c>
       <c r="O6">
-        <v>0.4250659434788278</v>
+        <v>0.3445930095145882</v>
       </c>
       <c r="P6">
-        <v>0.4250659434788278</v>
+        <v>0.3445930095145882</v>
       </c>
       <c r="Q6">
-        <v>0.4663674985573333</v>
+        <v>0.07006373018999999</v>
       </c>
       <c r="R6">
-        <v>4.197307487016</v>
+        <v>0.6305735717099999</v>
       </c>
       <c r="S6">
-        <v>0.08480754836766123</v>
+        <v>0.03900790911239398</v>
       </c>
       <c r="T6">
-        <v>0.08480754836766125</v>
+        <v>0.03900790911239398</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.4532080000000001</v>
+        <v>0.133983</v>
       </c>
       <c r="H7">
-        <v>1.359624</v>
+        <v>0.401949</v>
       </c>
       <c r="I7">
-        <v>0.1995162154690133</v>
+        <v>0.1131999432238703</v>
       </c>
       <c r="J7">
-        <v>0.1995162154690133</v>
+        <v>0.1131999432238703</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>1.964194</v>
       </c>
       <c r="O7">
-        <v>0.2704510841001898</v>
+        <v>0.4314455865542851</v>
       </c>
       <c r="P7">
-        <v>0.2704510841001898</v>
+        <v>0.4314455865542852</v>
       </c>
       <c r="Q7">
-        <v>0.2967294781173334</v>
+        <v>0.087722868234</v>
       </c>
       <c r="R7">
-        <v>2.670565303056</v>
+        <v>0.789505814106</v>
       </c>
       <c r="S7">
-        <v>0.0539593767691617</v>
+        <v>0.04883961590213449</v>
       </c>
       <c r="T7">
-        <v>0.0539593767691617</v>
+        <v>0.0488396159021345</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>21</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.133983</v>
+      </c>
+      <c r="H8">
+        <v>0.401949</v>
+      </c>
+      <c r="I8">
+        <v>0.1131999432238703</v>
+      </c>
+      <c r="J8">
+        <v>0.1131999432238703</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="L8">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G8">
-        <v>0.4532080000000001</v>
-      </c>
-      <c r="H8">
-        <v>1.359624</v>
-      </c>
-      <c r="I8">
-        <v>0.1995162154690133</v>
-      </c>
-      <c r="J8">
-        <v>0.1995162154690133</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
       <c r="M8">
-        <v>0.571001</v>
+        <v>0.2505543333333333</v>
       </c>
       <c r="N8">
-        <v>1.713003</v>
+        <v>0.751663</v>
       </c>
       <c r="O8">
-        <v>0.235864440282822</v>
+        <v>0.1651067480738428</v>
       </c>
       <c r="P8">
-        <v>0.2358644402828221</v>
+        <v>0.1651067480738428</v>
       </c>
       <c r="Q8">
-        <v>0.258782221208</v>
+        <v>0.03357002124299999</v>
       </c>
       <c r="R8">
-        <v>2.329039990872</v>
+        <v>0.302130191187</v>
       </c>
       <c r="S8">
-        <v>0.04705878048894575</v>
+        <v>0.01869007450783686</v>
       </c>
       <c r="T8">
-        <v>0.04705878048894575</v>
+        <v>0.01869007450783686</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.4532080000000001</v>
+        <v>0.133983</v>
       </c>
       <c r="H9">
-        <v>1.359624</v>
+        <v>0.401949</v>
       </c>
       <c r="I9">
-        <v>0.1995162154690133</v>
+        <v>0.1131999432238703</v>
       </c>
       <c r="J9">
-        <v>0.1995162154690133</v>
+        <v>0.1131999432238703</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1661176666666667</v>
+        <v>0.08931366666666667</v>
       </c>
       <c r="N9">
-        <v>0.498353</v>
+        <v>0.267941</v>
       </c>
       <c r="O9">
-        <v>0.06861853213816042</v>
+        <v>0.05885465585728381</v>
       </c>
       <c r="P9">
-        <v>0.06861853213816042</v>
+        <v>0.05885465585728381</v>
       </c>
       <c r="Q9">
-        <v>0.07528585547466669</v>
+        <v>0.011966513001</v>
       </c>
       <c r="R9">
-        <v>0.6775726992720001</v>
+        <v>0.107698617009</v>
       </c>
       <c r="S9">
-        <v>0.01369050984324463</v>
+        <v>0.006662343701504952</v>
       </c>
       <c r="T9">
-        <v>0.01369050984324463</v>
+        <v>0.006662343701504953</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.577103333333333</v>
+        <v>0.8083896666666667</v>
       </c>
       <c r="H10">
-        <v>4.73131</v>
+        <v>2.425169</v>
       </c>
       <c r="I10">
-        <v>0.6942897929212027</v>
+        <v>0.6829945916230425</v>
       </c>
       <c r="J10">
-        <v>0.6942897929212027</v>
+        <v>0.6829945916230425</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.029036333333333</v>
+        <v>0.52293</v>
       </c>
       <c r="N10">
-        <v>3.087109</v>
+        <v>1.56879</v>
       </c>
       <c r="O10">
-        <v>0.4250659434788278</v>
+        <v>0.3445930095145882</v>
       </c>
       <c r="P10">
-        <v>0.4250659434788278</v>
+        <v>0.3445930095145882</v>
       </c>
       <c r="Q10">
-        <v>1.622896631421111</v>
+        <v>0.42273120839</v>
       </c>
       <c r="R10">
-        <v>14.60606968279</v>
+        <v>3.80458087551</v>
       </c>
       <c r="S10">
-        <v>0.295118945875771</v>
+        <v>0.2353551618095714</v>
       </c>
       <c r="T10">
-        <v>0.295118945875771</v>
+        <v>0.2353551618095714</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1.577103333333333</v>
+        <v>0.8083896666666667</v>
       </c>
       <c r="H11">
-        <v>4.73131</v>
+        <v>2.425169</v>
       </c>
       <c r="I11">
-        <v>0.6942897929212027</v>
+        <v>0.6829945916230425</v>
       </c>
       <c r="J11">
-        <v>0.6942897929212027</v>
+        <v>0.6829945916230425</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.964194</v>
       </c>
       <c r="O11">
-        <v>0.2704510841001898</v>
+        <v>0.4314455865542851</v>
       </c>
       <c r="P11">
-        <v>0.2704510841001898</v>
+        <v>0.4314455865542852</v>
       </c>
       <c r="Q11">
-        <v>1.032578968237778</v>
+        <v>0.5292780443095556</v>
       </c>
       <c r="R11">
-        <v>9.293210714139999</v>
+        <v>4.763502398786</v>
       </c>
       <c r="S11">
-        <v>0.1877714271752355</v>
+        <v>0.294675002196208</v>
       </c>
       <c r="T11">
-        <v>0.1877714271752355</v>
+        <v>0.2946750021962081</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1.577103333333333</v>
+        <v>0.8083896666666667</v>
       </c>
       <c r="H12">
-        <v>4.73131</v>
+        <v>2.425169</v>
       </c>
       <c r="I12">
-        <v>0.6942897929212027</v>
+        <v>0.6829945916230425</v>
       </c>
       <c r="J12">
-        <v>0.6942897929212027</v>
+        <v>0.6829945916230425</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.571001</v>
+        <v>0.2505543333333333</v>
       </c>
       <c r="N12">
-        <v>1.713003</v>
+        <v>0.751663</v>
       </c>
       <c r="O12">
-        <v>0.235864440282822</v>
+        <v>0.1651067480738428</v>
       </c>
       <c r="P12">
-        <v>0.2358644402828221</v>
+        <v>0.1651067480738428</v>
       </c>
       <c r="Q12">
-        <v>0.9005275804366666</v>
+        <v>0.2025455340052222</v>
       </c>
       <c r="R12">
-        <v>8.104748223929999</v>
+        <v>1.822909806047</v>
       </c>
       <c r="S12">
-        <v>0.1637582734014359</v>
+        <v>0.1127670159749028</v>
       </c>
       <c r="T12">
-        <v>0.1637582734014359</v>
+        <v>0.1127670159749028</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.8083896666666667</v>
+      </c>
+      <c r="H13">
+        <v>2.425169</v>
+      </c>
+      <c r="I13">
+        <v>0.6829945916230425</v>
+      </c>
+      <c r="J13">
+        <v>0.6829945916230425</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G13">
-        <v>1.577103333333333</v>
-      </c>
-      <c r="H13">
-        <v>4.73131</v>
-      </c>
-      <c r="I13">
-        <v>0.6942897929212027</v>
-      </c>
-      <c r="J13">
-        <v>0.6942897929212027</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M13">
-        <v>0.1661176666666667</v>
+        <v>0.08931366666666667</v>
       </c>
       <c r="N13">
-        <v>0.498353</v>
+        <v>0.267941</v>
       </c>
       <c r="O13">
-        <v>0.06861853213816042</v>
+        <v>0.05885465585728381</v>
       </c>
       <c r="P13">
-        <v>0.06861853213816042</v>
+        <v>0.05885465585728381</v>
       </c>
       <c r="Q13">
-        <v>0.2619847258255556</v>
+        <v>0.07220024522544445</v>
       </c>
       <c r="R13">
-        <v>2.35786253243</v>
+        <v>0.6498022070289999</v>
       </c>
       <c r="S13">
-        <v>0.0476411464687603</v>
+        <v>0.04019741164236026</v>
       </c>
       <c r="T13">
-        <v>0.0476411464687603</v>
+        <v>0.04019741164236026</v>
       </c>
     </row>
   </sheetData>
